--- a/biology/Zoologie/Grand_Hocco/Grand_Hocco.xlsx
+++ b/biology/Zoologie/Grand_Hocco/Grand_Hocco.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Crax rubra
 Le Grand Hocco (Crax rubra) est une espèce d'oiseau de la famille des Cracidae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cet oiseau mesure entre 78 et 92 cm de longueur et peut peser jusqu'à 5 kg ce qui le place parmi les plus grands Cracidae. Il présente un net dimorphisme sexuel.
 Le mâle a un plumage noir sur le dessus, blanc sur le dessous, un bec jaune, court, crochu, aplati transversalement, surmonté d'un tubercule jaune. Il a une huppe de plumes bouclées sur la tête. Les pattes sont grises.
@@ -547,7 +561,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit essentiellement sur le sol, seul, en couple ou en petits groupes. Il dort dans les arbres.
 Son cri est un “guiip guiiit guiiiiu”. En période de reproduction, le mâle émet un “hummmmm” bas et profond sur plusieurs tons.
@@ -579,7 +595,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau construit son nid dans un arbre, entre 1 et 3 m de haut. La femelle y dépose deux œufs blancs entre mars et mai.
 </t>
@@ -610,7 +628,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se nourrit directement sur le sol de fruits tombés, de baies, de graines, d'arthropodes et de petits animaux en grattant le sol.
 </t>
@@ -641,7 +661,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit en Amérique centrale depuis l'est du Mexique jusqu'à l'ouest de la Colombie et le nord-ouest de l'Équateur.
 </t>
@@ -672,7 +694,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Son habitat naturel est les forêts humides jusqu'à 1 900 m d'altitude.
 Il est présent en Amérique Centrale à l'extrême nord-ouest de l'Amérique du Sud.
@@ -704,7 +728,9 @@
           <t>Evolution de la population</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">La population est estimée entre 6 700 et 40 000 oiseaux adultes (entre 10 000 et 60 000 en comptant les immatures) dans le monde mais elle est suspectée d'avoir rapidement décliné durant les 3 dernières générations à cause notamment de la perte de son habitat. Il est également largement chassé pour la nourriture, le sport et le trafic illégal d'animaux, chasse autorisée à des fins de subsistances dans plusieurs pays d'Amérique centrale.
 </t>
@@ -735,7 +761,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>D'après la classification de référence (version 12.1, 2022) du Congrès ornithologique international, cette espèce est constituée des deux sous-espèces suivantes (ordre phylogénique) :
 Crax rubra rubra Linné, 1758 ;
